--- a/Data/Transitions/19321955Translation.xlsx
+++ b/Data/Transitions/19321955Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="808">
   <si>
     <t>id</t>
   </si>
@@ -58,7 +58,7 @@
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 2.351331957883027e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 2.401203365375507e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -94,13 +94,13 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.001379178879419197, 246.0: 0.0019461464891605041}</t>
+    <t>{46.0: 0.9985255086994986, 681.0: 0.005648551134411849, 741.0: 0.0013872263249506789, 246.0: 0.0019461356062374473}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -139,7 +139,7 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9908461157842652}</t>
+    <t>{71.0: 0.9911641791044776}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -151,22 +151,22 @@
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9994900560938297, 172.0: 0.0017460035917788175}</t>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9994958830448664, 172.0: 0.0017369111696087657}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491}</t>
@@ -178,7 +178,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 492.0: 0.0034097812427010023, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 492.0: 0.00340993998915335, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 1.0, 420.0: 0.0017332897937486795, 212.0: 1.4040419552439689e-06}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9618488000094441, 92.0: 0.040265849431765505, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9597341505682345, 91.0: 0.038151199990555905, 858.0: 0.11116858391946506}</t>
+    <t>{90.0: 1.0, 420.0: 0.0017332897937486795, 212.0: 1.3983782119795719e-06}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9618488000094441, 92.0: 0.0395714828352435, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.9604285171647565, 91.0: 0.038151199990555905, 858.0: 0.10346854860717557}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.44695487535500156}</t>
+    <t>{97.0: 0.9951567948489588}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.4517299630857786}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 543.0: -8.786384890967674e-06}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 543.0: -5.8976054398966166e-06, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 543.0: 0.00045369001611514527}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 543.0: 0.0006939215173807665, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -253,13 +253,13 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
   </si>
   <si>
     <t>{145.0: 0.9980884254689805}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022369285492871666}</t>
+    <t>{152.0: 0.9280286630608138}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00022648901561532565}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -295,7 +295,7 @@
     <t>{165.0: 1.0, 914.0: 0.019362745098039216, 110.0: 0.0026732489686181805}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0, 596.0: 1.0}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.9619968340002982}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9982531055900621}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.0026954824780397197, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.962416444369412}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9982622127823905}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0027291760090152163, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,40 +328,40 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432}</t>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9978009547940806, 277.0: 0.0024306208616427754, 282.0: 0.0027799841143764893}</t>
-  </si>
-  <si>
-    <t>{183.0: 1.0, 182.0: 0.0012746234067207416}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.0032262499489456964, 593.0: 0.0009458120959859789, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{182.0: 0.9977922838424979, 277.0: 0.002432709592326763, 282.0: 0.0028089887640449437}</t>
+  </si>
+  <si>
+    <t>{183.0: 1.0, 182.0: 0.0012796649604467194}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.0031773362950393708, 593.0: 0.0009455259769124086, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,22 +370,22 @@
     <t>{206.0: 1.0, 578.0: 0.18204845814977974}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.0002023300897359477}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.00017673394070562247}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,7 +394,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.3432385374347069}</t>
+    <t>{265.0: 0.25544229440221145}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -406,19 +406,19 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{226.0: 0.7384353461125667}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.3665829731478953}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9971138776816465, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0365901940626062e-06}</t>
+    <t>{858.0: 0.26046723041719105}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9971083017840098, 46.0: 0.001474491300501327, 681.0: 8.34103829653256e-06, 741.0: 2.0484736044753086e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,7 +490,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
+    <t>{249.0: 0.904978210564596}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,28 +526,28 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.6567614625652931}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.7445577055977886}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0, 887.0: 0.0039276426066777795}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -559,7 +562,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9562339628779037}</t>
+    <t>{277.0: 0.9562004156937055}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -571,7 +574,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 182.0: 0.0009244217991987239, 277.0: 0.003463745277607252}</t>
+    <t>{282.0: 0.9971910112359551, 182.0: 0.0009280511970553328, 277.0: 0.003463623760378881}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,7 +583,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.009027434938994288}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 0.9421714285714285}</t>
@@ -625,7 +628,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9475683890577508, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{303.0: 0.9475683890577508, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -640,13 +643,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -658,7 +661,7 @@
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009153884215734785}</t>
+    <t>{317.0: 1.0, 71.0: 0.008835820895522388}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5530451246449984}</t>
+    <t>{398.0: 1.0, 98.0: 0.5482700369142214}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.3591891979301202, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018911240424169227}</t>
+    <t>{402.0: 0.9983019057254231, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.5138231329303637, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019288581928823538}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,7 +700,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -709,7 +709,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6360005026944944, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.48129234385212344, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.03761711648720459}</t>
+    <t>{415.0: 1.0, 277.0: 0.03764870538838348}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -733,40 +733,40 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9911644356572448, 212.0: 0.0008028873516867112}</t>
+    <t>{420.0: 0.9911644356572448, 212.0: 0.0007996485967383983}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
+    <t>{597.0: 0.13743568393910327}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -808,13 +808,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.08064737321770447}</t>
+    <t>{477.0: 0.080645882789361}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -838,16 +838,16 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9875966399313995, 97.0: 0.004860304774426683, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
+    <t>{492.0: 0.9876426186765974, 97.0: 0.004826340390360104, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -865,19 +865,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9171511627906976, 277.0: 0.00025455449564166214}</t>
+    <t>{499.0: 0.9158799178259773}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9184549356223176, 277.0: 0.00025454556520529897}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605, 857.0: 4.459150730131028e-06}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106, 857.0: 4.458093304345013e-06}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,16 +907,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,13 +928,13 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.9989074023490849}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.998852388466504}</t>
   </si>
   <si>
     <t>{544.0: 1.0, 975.0: 0.0007100591715976331}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,10 +985,10 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -997,13 +997,13 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928}</t>
+    <t>{585.0: 0.9874713727603395}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1015,7 +1015,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,16 +1024,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.322560212388586, 686.0: 0.0031784310045871716, 171.0: 0.001806168248146969}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6752492205968912, 686.0: 0.006653743940318745, 171.0: 0.003781041972897863}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
+    <t>{593.0: 0.49573552229079876, 686.0: 0.004833238028639742, 171.0: 0.0027770683346861323}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5020745364181671, 686.0: 0.004895041072333087, 171.0: 0.0028125789539875192}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1054,19 +1054,19 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1087,7 +1087,7 @@
     <t>{614.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.9872775882732553}</t>
+    <t>{615.0: 0.9874499818115678}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1096,10 +1096,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0009399758291929637, 789.0: 0.0048678056695618975}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 861.0: 0.015839714675338297}</t>
+    <t>{618.0: 1.0, 246.0: 0.0009455626097528029, 789.0: 0.004867341095628937}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 861.0: 0.015856347789562113}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1111,7 +1111,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1123,10 +1123,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1147,19 +1147,19 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0011817950186500195}</t>
+    <t>{702.0: 0.0010744560484802531}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003, 171.0: 0.004590534240457661}</t>
+    <t>{681.0: 0.9819650489176246, 171.0: 0.004592536571129643}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1174,10 +1174,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.9797093010679292}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
+    <t>{686.0: 0.9798120995249867}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1198,19 +1198,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9726124982080356, 857.0: 0.002407106197341186}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.008970065506320688, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9726649784458168, 857.0: 0.0024065353854721126}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.008923429300595413, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17918043031872155}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8208195696812784}</t>
+    <t>{698.0: 0.41478628942427037}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5852137105757296}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1219,7 +1219,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8123152474620813}</t>
+    <t>{702.0: 0.8122887726510712}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -1264,16 +1264,16 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.42358977000904163}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.3393572469437298}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1294,7 +1294,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1336,7 +1336,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1345,7 +1345,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1357,34 +1357,34 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.02459917158925359, 184.0: 0.008221436149102493, 593.0: 0.001244754918536786, 420.0: 0.0015328019619865114, 212.0: 1.2416378792924353e-06}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.02422403547574524, 184.0: 0.008237802816574552, 593.0: 0.0012444153141216907, 420.0: 0.0015328019619865114, 212.0: 1.2366292553340148e-06}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213, 172.0: 8.908181590708252e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591, 172.0: 8.760480008114152e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9958950969213227, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.9958950969213227, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.08284883720930232}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.041453388785100964}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9951321943304381}</t>
+    <t>{787.0: 1.0, 500.0: 0.0815450643776824}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.036209249771767926}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9951326589043711}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1399,13 +1399,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1414,7 +1414,7 @@
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.3037118039871105e-05}</t>
+    <t>{840.0: 0.852224123182207, 303.0: 0.05243161094224924, 144.0: 5.281008320521998e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1435,25 +1435,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9975697628520787, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06458457458327624}</t>
+    <t>{857.0: 0.997570339149132, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.31088152297049804}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,7 +1474,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700407893163199, 490.0: 0.032209337000882715}</t>
+    <t>{861.0: 0.674127674658629, 490.0: 0.032521737688368406}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1507,34 +1507,34 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9929245283018868, 477.0: 0.002241450061637145}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5284090305469189}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9929245283018868, 477.0: 0.0022414086378366033}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.5258825654402548}</t>
   </si>
   <si>
     <t>{909.0: 0.9909725650610057}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 490.0: 0.015099947446190023}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1549,22 +1549,22 @@
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 695.0: 0.007544505480605318, 857.0: 1.8671799850093234e-05}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 695.0: 0.0075449125671298, 857.0: 1.866737209157424e-05}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.010458523987164852}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9965801756052919, 887.0: 0.046750524109014674}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.010459621374040539}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9965078673810798, 887.0: 0.046750524109014674}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1591,19 +1591,19 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143}</t>
+    <t>{933.0: 1.0, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143}</t>
   </si>
   <si>
     <t>{934.0: 1.0, 5.0: 0.0029201396313996318}</t>
   </si>
   <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035962086312661835}</t>
+    <t>{937.0: 1.0, 85.0: 0.003634651862191165}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1612,19 +1612,19 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{972.0: 1.0, 615.0: 0.012722411726744723}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{972.0: 1.0, 615.0: 0.012550018188432157}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -1633,16 +1633,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9992899408284024, 152.0: 0.07154402341844747}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9992899408284024, 152.0: 0.07154462475655347}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{978.0: 1.0, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1660,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3755864039975379}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27666958868729524}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.4315215930889716}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22073862393611562}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{4.0: 0.9952675646159447, 496.0: 0.004732435384055333}</t>
@@ -1681,7 +1681,7 @@
     <t>{11.0: 0.9970355731225298, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994832, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919302775984511, 178.0: 0.0006455777921239509, 623.0: 0.0016139444803098776, 696.0: 0.005717900736820557, 492.0: 9.229939229500004e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1705,22 +1705,22 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487783, 917.0: 0.22668409045122154}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.22441031406671372}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613503, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985303723056826, 172.0: 0.0014696276943174393}</t>
+    <t>{81.0: 0.9985291714332409, 172.0: 0.0014708285667592738}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180958, 694.0: 0.011355364681904206}</t>
@@ -1735,10 +1735,10 @@
     <t>{90.0: 0.9975819711770965, 420.0: 0.002417631055372248, 212.0: 3.9776753132152803e-07}</t>
   </si>
   <si>
-    <t>{91.0: 0.9628148011524466, 92.0: 0.004566266646967782, 104.0: 0.021051731640396545, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.5389854947099075, 91.0: 0.3314697194467064, 858.0: 0.12954478584338616}</t>
+    <t>{91.0: 0.962814801152447, 92.0: 0.004334749724608858, 104.0: 0.021283248562755458, 294.0: 0.00360459378887126, 566.0: 0.00796260677131807}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.5389854947099075, 91.0: 0.33146971944670656, 858.0: 0.12954478584338616}</t>
   </si>
   <si>
     <t>{97.0: 1.0}</t>
@@ -1747,10 +1747,10 @@
     <t>{98.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9991815856777492, 543.0: 0.0008184143222506396}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9818566632185154, 543.0: 0.0008042237438054802, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9991869092387434, 543.0: 0.0008130907612562256}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9818618944736834, 543.0: 0.0007989924886369114, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -1765,7 +1765,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273639}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1780,13 +1780,13 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.9931010392105493, 914.0: 0.006238578376561142, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1798,31 +1798,31 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9475333905575845, 404.0: 0.0060983645409981285, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461032, 420.0: 0.008017123377847022, 212.0: 1.3190397133673941e-06}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9852869053457577, 502.0: 0.014713094654242276}</t>
+    <t>{173.0: 0.9475398833598637, 404.0: 0.006091871738718653, 185.0: 0.0374704936745111, 700.0: 0.0008793088093461032, 420.0: 0.008017123377847022, 212.0: 1.3190397133673941e-06}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9852869053457574, 502.0: 0.014713094654242276}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.986260226386314, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.4047509394724499, 850.0: 0.0001811776810530214}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.00018071689469940593}</t>
   </si>
   <si>
     <t>{180.0: 0.999552572706935, 850.0: 0.00044742729306487713}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971744383835212, 277.0: 0.0020032995522036297, 282.0: 0.0008222620642749617}</t>
-  </si>
-  <si>
-    <t>{183.0: 0.9962354551676935, 182.0: 0.0037645448323066406}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9874456491334581, 171.0: 0.007472928889210899, 593.0: 0.003396785858732227, 778.0: 0.0016846361185983833}</t>
+    <t>{182.0: 0.9971634886605054, 277.0: 0.0020111203123151546, 282.0: 0.0008253910271794812}</t>
+  </si>
+  <si>
+    <t>{183.0: 0.9964005235602094, 182.0: 0.0035994764397905762}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9874023973491758, 171.0: 0.007493222746354556, 593.0: 0.003406010339252075, 778.0: 0.001698369565217391}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1843,7 +1843,7 @@
     <t>{206.0: 0.8017747931406644, 578.0: 0.19822520685933565}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1864,7 +1864,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8416485635345012, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{222.0: 0.841323611564875, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1876,7 +1876,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628103, 297.0: 0.00018045618356780222, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524384, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.990109501942776, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
@@ -1885,7 +1885,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364936}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364936}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1909,7 +1909,7 @@
     <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1918,13 +1918,13 @@
     <t>{267.0: 0.9888487040385775, 887.0: 0.011151295961422544}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083753, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{270.0: 0.9873640905083753, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328584, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1933,7 +1933,7 @@
     <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
   </si>
   <si>
-    <t>{282.0: 0.986540094600859, 182.0: 0.0031506270486254973, 277.0: 0.010309278350515464}</t>
+    <t>{282.0: 0.9864431721116683, 182.0: 0.003247549537816193, 277.0: 0.010309278350515464}</t>
   </si>
   <si>
     <t>{285.0: 0.9141291469502109, 311.0: 0.08587085304978906}</t>
@@ -1942,10 +1942,10 @@
     <t>{286.0: 0.9870967741935485, 909.0: 0.012903225806451615}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825852, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938829, 297.0: 0.013922582006117503}</t>
+    <t>{297.0: 0.9603432320318248, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109047, 297.0: 0.013921113689095124}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -1954,16 +1954,16 @@
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701205, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662859, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9281137216879629, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392756, 5.0: 0.05300183025736113, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{317.0: 0.9822371579452716, 71.0: 0.017762842054728757}</t>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.5643116392383036, 98.0: 0.43568836076169654}</t>
@@ -1981,10 +1981,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150556}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484792, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{404.0: 0.7774172615184941, 907.0: 0.2225827384815055}</t>
@@ -1993,7 +1993,7 @@
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -2002,7 +2002,7 @@
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0479628674574523}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04788877445932027}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2014,7 +2014,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749245, 431.0: 0.00018684574941587383, 783.0: 0.0001883948756593821}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2032,16 +2032,16 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977861, 942.0: 0.022140221402214017}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923823, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869781, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9810074512863981, 97.0: 0.002446549374644078, 696.0: 0.0004937625084625475, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.02257761053621825}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9810074371926921, 97.0: 0.002446549374644078, 696.0: 0.0004937766021689648, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
@@ -2053,7 +2053,7 @@
     <t>{500.0: 0.9993798449612403, 277.0: 0.00062015503875969}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 695.0: 0.0011700158119279725, 857.0: 7.285812748269429e-06}</t>
+    <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 695.0: 0.0011699865195521572, 857.0: 7.315105124084837e-06}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2116,7 +2116,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643211, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.988462903798367, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -2134,10 +2134,10 @@
     <t>{589.0: 0.9755777741353876, 145.0: 0.0014751680052450418, 743.0: 0.022947057859367317}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9912075672819322, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
+    <t>{593.0: 0.9912172314130087, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
   </si>
   <si>
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774045}</t>
@@ -2149,7 +2149,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621468, 475.0: 0.025141242937853105}</t>
@@ -2179,7 +2179,7 @@
     <t>{618.0: 0.9843454790823211, 246.0: 0.0018893387314439947, 789.0: 0.013765182186234815}</t>
   </si>
   <si>
-    <t>{619.0: 0.978517570066866, 861.0: 0.021482429933134154}</t>
+    <t>{619.0: 0.9784562705093449, 861.0: 0.021543729490654872}</t>
   </si>
   <si>
     <t>{621.0: 1.0}</t>
@@ -2209,7 +2209,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.04251700680272111}</t>
@@ -2224,10 +2224,10 @@
     <t>{694.0: 0.9398443029016278, 86.0: 0.06015569709837228}</t>
   </si>
   <si>
-    <t>{695.0: 0.99381143065162, 857.0: 0.006188569348380051}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661319, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.2549286129056617e-07, 623.0: 8.137321532264153e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{695.0: 0.9937865497076024, 857.0: 0.006213450292397661}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063284, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.2528273032782204e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2242,7 +2242,7 @@
     <t>{734.0: 0.27414480841290945, 73.0: 0.13368790039888795, 888.0: 0.5921672911882025}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851535, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192107, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{741.0: 1.0}</t>
@@ -2254,7 +2254,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.1933071454861769}</t>
+    <t>{752.0: 0.8066160041894902, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2275,25 +2275,25 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125862, 171.0: 0.019228381995123507, 184.0: 0.002467869216390959, 593.0: 0.001521981335728533, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725947, 81.0: 0.000349340071943679, 172.0: 5.141554615687834e-07}</t>
+    <t>{778.0: 0.9753594977972541, 171.0: 0.018734002824261534, 184.0: 0.0024499924988529696, 593.0: 0.0014829986394605862, 420.0: 0.0019731835966043188, 212.0: 3.2464356640413275e-07}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034933965181337877, 172.0: 5.145755918691338e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8357348703170024, 500.0: 0.16426512968299703}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8360891445003591, 500.0: 0.16391085549964057}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2305,16 +2305,16 @@
     <t>{833.0: 0.9940704167244314, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
   </si>
   <si>
-    <t>{835.0: 0.9854027219869261, 836.0: 0.00954570992214585, 756.0: 0.005051568090928225}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336174, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
-  </si>
-  <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{835.0: 0.985065525336512, 836.0: 0.009882906572559542, 756.0: 0.005051568090928225}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597999, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7910588189347848, 536.0: 0.11520779038336175, 486.0: 0.07468196059767147, 980.0: 0.019051430084181874}</t>
+  </si>
+  <si>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{844.0: 1.0}</t>
@@ -2326,19 +2326,19 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290919, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8497991839662072, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08456065457257103, 307.0: 8.839720974269256e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455601, 976.0: 0.0026544401544401548}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9928112252580561, 695.0: 0.0071887747419441045}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.991545127879941, 490.0: 0.008454872120059184}</t>
+    <t>{852.0: 0.9898358092259582, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8497991839662072, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08462716049435266, 307.0: 8.839720974269256e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9927417586919551, 695.0: 0.007258241308044793}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9915361828184509, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -2371,7 +2371,10 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.0905624831377268e-07}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.004977352458495427, 174.0: 1.4117263642249505e-05, 502.0: 2.1081030824663275e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.991536182818451, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152105, 110.0: 0.09572201278478937}</t>
@@ -2383,7 +2386,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 695.0: 0.005083434427885524, 857.0: 3.165508618097213e-05}</t>
+    <t>{919.0: 0.9890254656143604, 297.0: 0.005859444871573596, 695.0: 0.00508330715962968, 857.0: 3.178235443681668e-05}</t>
   </si>
   <si>
     <t>{921.0: 0.9865234019304316, 686.0: 0.013476598069568385}</t>
@@ -2395,7 +2398,7 @@
     <t>{932.0: 0.9982325910215624, 108.0: 0.0017674089784376107}</t>
   </si>
   <si>
-    <t>{933.0: 0.8485852738691527, 249.0: 0.11697890198493716, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.8490706747101121, 249.0: 0.11649350114397815, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9935019726154561, 5.0: 0.006498027384543977}</t>
@@ -2413,13 +2416,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.7305358356680621, 634.0: 0.10812454662003079, 848.0: 0.1613396177119069}</t>
+    <t>{943.0: 0.7045586858250902, 634.0: 0.10993183872972913, 848.0: 0.1855094754451809}</t>
   </si>
   <si>
     <t>{971.0: 0.9989698686582539, 152.0: 0.0010301313417460727}</t>
   </si>
   <si>
-    <t>{972.0: 0.9541375872382852, 615.0: 0.04586241276171485}</t>
+    <t>{972.0: 0.9537688442211055, 615.0: 0.0462311557788945}</t>
   </si>
   <si>
     <t>{975.0: 0.9378134403209629, 152.0: 0.06218655967903712}</t>
@@ -2428,7 +2431,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{978.0: 0.9504155918601316, 489.0: 0.04917254413384412, 935.0: 0.0004118640060240264}</t>
+    <t>{978.0: 0.9504155918601316, 489.0: 0.04917437168691644, 935.0: 0.0004100364529517132}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -4439,7 +4442,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4461,40 +4464,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>603</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4505,40 +4508,40 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>626</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>627</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4549,29 +4552,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>628</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>628</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4582,7 +4585,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4593,7 +4596,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4615,128 +4618,128 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>629</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>629</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>630</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>634</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>635</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>635</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4747,51 +4750,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>636</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>636</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>637</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>637</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4802,40 +4805,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>638</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>639</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4846,40 +4849,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>640</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>641</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4890,7 +4893,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4901,7 +4904,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4912,7 +4915,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4923,7 +4926,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4934,7 +4937,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4945,7 +4948,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4956,84 +4959,84 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>642</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>644</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>645</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>646</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -5044,7 +5047,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5055,7 +5058,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -5066,62 +5069,62 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>647</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>647</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>604</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>648</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -5132,29 +5135,29 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>649</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>649</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5165,7 +5168,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -8350,7 +8353,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -8372,7 +8375,7 @@
         <v>508</v>
       </c>
       <c r="C507" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -8405,7 +8408,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8416,7 +8419,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8427,7 +8430,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8449,7 +8452,7 @@
         <v>515</v>
       </c>
       <c r="C514" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -8460,7 +8463,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8548,7 +8551,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8559,7 +8562,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8570,7 +8573,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8581,7 +8584,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8603,7 +8606,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -8614,7 +8617,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8636,7 +8639,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8647,7 +8650,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8669,7 +8672,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8680,7 +8683,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8713,7 +8716,7 @@
         <v>539</v>
       </c>
       <c r="C538" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -8724,7 +8727,7 @@
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8746,7 +8749,7 @@
         <v>542</v>
       </c>
       <c r="C541" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -8757,7 +8760,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8768,7 +8771,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="544" spans="1:3">
